--- a/iris.csv.xlsx
+++ b/iris.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ardha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{585A1801-469B-4874-8B7E-D5C5D41B7F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2445161-A20B-407F-AAD4-B6A8E4BFDAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A37D31B-CE7F-46B8-B8F6-B2A77991F2C5}"/>
   </bookViews>
